--- a/biology/Botanique/Cratoxylum/Cratoxylum.xlsx
+++ b/biology/Botanique/Cratoxylum/Cratoxylum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cratoxylum, ou Cratoxylon (selon l'ancienne appellation), est un genre de plantes à fleurs de la famille des Hypericaceae, originaire des régions d'Asie tropicale. Anciennement, il appartenait à la famille des Clusiaceae. Le nom générique est tiré du grec Kratos (fort) et xylum (bois) en référence à la qualité de son bois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cratoxylum, ou Cratoxylon (selon l'ancienne appellation), est un genre de plantes à fleurs de la famille des Hypericaceae, originaire des régions d'Asie tropicale. Anciennement, il appartenait à la famille des Clusiaceae. Le nom générique est tiré du grec Kratos (fort) et xylum (bois) en référence à la qualité de son bois.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbrisseaux ou arbres atteignant jusqu'à 35 m de hauteur, à feuilles persistantes ou caduques, entières, opposées, présence d'une cicatrice interpétiolaire persistante. Fleurs à cinq sépales, cinq pétales de couleur blanche, rose ou rouge, ovaire triloculaire à cloisons incomplètes. Le fruit est une capsule trilobée, libérant 5 à 18 graines par lobe à maturité. Le tronc de certaines espèces présente des épines à des stades juvéniles. L'écorce libère une résine colorée caractéristique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbrisseaux ou arbres atteignant jusqu'à 35 m de hauteur, à feuilles persistantes ou caduques, entières, opposées, présence d'une cicatrice interpétiolaire persistante. Fleurs à cinq sépales, cinq pétales de couleur blanche, rose ou rouge, ovaire triloculaire à cloisons incomplètes. Le fruit est une capsule trilobée, libérant 5 à 18 graines par lobe à maturité. Le tronc de certaines espèces présente des épines à des stades juvéniles. L'écorce libère une résine colorée caractéristique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre asiatique de la famille des Hypericaceae a été décrit initialement par Blume en 1852, et plus récemment par Kochummen (1973), N. Robson (1974) et par Wong (1995)[1]. Selon l'Angiosperm Phylogeny Group, il appartiendrait avec le genre Eliea à la tribu des Cratoxyleae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre asiatique de la famille des Hypericaceae a été décrit initialement par Blume en 1852, et plus récemment par Kochummen (1973), N. Robson (1974) et par Wong (1995). Selon l'Angiosperm Phylogeny Group, il appartiendrait avec le genre Eliea à la tribu des Cratoxyleae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Cratoxylum sont des plantes tropicales endémiques d'Asie du Sud-Est et de la région biogéographique de Malésie occidentale[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Cratoxylum sont des plantes tropicales endémiques d'Asie du Sud-Est et de la région biogéographique de Malésie occidentale,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List (18 mars 2019)[4], six espèces et trois sous-espèces de Cratoxylum sont reconnues :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List (18 mars 2019), six espèces et trois sous-espèces de Cratoxylum sont reconnues :
 Cratoxylum  arborescens (Vahl) Blume
 Cratoxylum  cochinchinense (Lour.) Blume
 Cratoxylum  formosum (Jacq.) Benth. &amp; Hook.f. ex Dyer
